--- a/output/StructureDefinition-activity-observation.xlsx
+++ b/output/StructureDefinition-activity-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T16:36:18+01:00</t>
+    <t>2025-10-01T23:24:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-activity-observation.xlsx
+++ b/output/StructureDefinition-activity-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T23:24:47+01:00</t>
+    <t>2025-10-02T07:31:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-activity-observation.xlsx
+++ b/output/StructureDefinition-activity-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T07:31:55+01:00</t>
+    <t>2025-10-02T11:12:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-activity-observation.xlsx
+++ b/output/StructureDefinition-activity-observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7367" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7367" uniqueCount="675">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:12:29+01:00</t>
+    <t>2025-10-02T18:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2159,9 +2159,6 @@
   </si>
   <si>
     <t>Observation.component:interruptions.value[x]:valueQuantity.code</t>
-  </si>
-  <si>
-    <t>{count}</t>
   </si>
   <si>
     <t>Observation.component:interruptions.dataAbsentReason</t>
@@ -4266,7 +4263,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>190</v>
       </c>
@@ -4388,7 +4385,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>203</v>
       </c>
@@ -4510,7 +4507,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>214</v>
       </c>
@@ -4630,7 +4627,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>228</v>
       </c>
@@ -5114,7 +5111,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>267</v>
       </c>
@@ -5238,7 +5235,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>270</v>
       </c>
@@ -6452,7 +6449,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>360</v>
       </c>
@@ -9102,7 +9099,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>474</v>
       </c>
@@ -11162,7 +11159,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
         <v>540</v>
       </c>
@@ -13222,7 +13219,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
         <v>559</v>
       </c>
@@ -15282,7 +15279,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="106" hidden="true">
+    <row r="106">
       <c r="A106" t="s" s="2">
         <v>578</v>
       </c>
@@ -17342,7 +17339,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="123" hidden="true">
+    <row r="123">
       <c r="A123" t="s" s="2">
         <v>597</v>
       </c>
@@ -19402,7 +19399,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="140" hidden="true">
+    <row r="140">
       <c r="A140" t="s" s="2">
         <v>616</v>
       </c>
@@ -21462,7 +21459,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="157" hidden="true">
+    <row r="157">
       <c r="A157" t="s" s="2">
         <v>636</v>
       </c>
@@ -23522,7 +23519,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="174" hidden="true">
+    <row r="174">
       <c r="A174" t="s" s="2">
         <v>656</v>
       </c>
@@ -25144,7 +25141,7 @@
         <v>87</v>
       </c>
       <c r="S187" t="s" s="2">
-        <v>672</v>
+        <v>98</v>
       </c>
       <c r="T187" t="s" s="2">
         <v>87</v>
@@ -25218,7 +25215,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>466</v>
@@ -25340,7 +25337,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>470</v>
@@ -25462,7 +25459,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>471</v>
@@ -25584,12 +25581,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP190">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/output/StructureDefinition-activity-observation.xlsx
+++ b/output/StructureDefinition-activity-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T18:31:12+01:00</t>
+    <t>2025-10-03T16:37:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-activity-observation.xlsx
+++ b/output/StructureDefinition-activity-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:37:46+01:00</t>
+    <t>2025-11-27T11:57:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-activity-observation.xlsx
+++ b/output/StructureDefinition-activity-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T11:57:11+00:00</t>
+    <t>2025-11-27T15:44:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-activity-observation.xlsx
+++ b/output/StructureDefinition-activity-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:03:01+00:00</t>
+    <t>2025-11-28T14:35:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-activity-observation.xlsx
+++ b/output/StructureDefinition-activity-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T14:35:57+00:00</t>
+    <t>2025-11-30T13:08:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
